--- a/스터디 벌금.xlsx
+++ b/스터디 벌금.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rach/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rach/Documents/GitHub/unp_study_penalty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{304D4392-A8B5-9E45-8607-2419D9526DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B65E871-A3FE-A04C-A513-C259E0934AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{24509ADD-88A1-5743-8356-1991D6A2A3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>김서진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>03월 11일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,15 +500,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AF3866-83C0-5443-A156-F6E26DC42B1D}">
-  <dimension ref="A2:F13"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -528,8 +535,12 @@
         <f>SUM(F4:F13)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2">
+        <f>SUM(G4:G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -548,8 +559,11 @@
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -560,81 +574,92 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/스터디 벌금.xlsx
+++ b/스터디 벌금.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rach/Documents/GitHub/unp_study_penalty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B65E871-A3FE-A04C-A513-C259E0934AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2642C34A-8F7A-A84B-BD7D-B1D0C84A065A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{24509ADD-88A1-5743-8356-1991D6A2A3DD}"/>
   </bookViews>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최우혁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +67,10 @@
   </si>
   <si>
     <t>김지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄정경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,66 +506,66 @@
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
-        <f>SUM(B4:B13)</f>
+        <f t="shared" ref="B2:G2" si="0">SUM(B4:B13)</f>
         <v>-500</v>
       </c>
       <c r="C2" s="2">
-        <f>SUM(C4:C13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM(D4:D13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <f>SUM(E4:E13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>SUM(F4:F13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>SUM(G4:G13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
         <v>-500</v>

--- a/스터디 벌금.xlsx
+++ b/스터디 벌금.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rach/Documents/GitHub/unp_study_penalty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2642C34A-8F7A-A84B-BD7D-B1D0C84A065A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EEC8D1-9EA3-2748-B968-7E16B66C8C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{24509ADD-88A1-5743-8356-1991D6A2A3DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>김서진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>엄정경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 12일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +82,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,6 +96,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -145,29 +160,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,10 +531,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -515,149 +543,188 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <f t="shared" ref="B2:G2" si="0">SUM(B4:B13)</f>
-        <v>-500</v>
-      </c>
-      <c r="C2" s="2">
+        <v>2500</v>
+      </c>
+      <c r="C2" s="4">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="G2" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
-        <v>-500</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="5">
+        <v>500</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>600</v>
+      </c>
+      <c r="D5" s="5">
+        <v>700</v>
+      </c>
+      <c r="E5" s="5">
+        <v>200</v>
+      </c>
+      <c r="F5" s="5">
+        <v>900</v>
+      </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7">
+        <f>SUM(B2:G2)</f>
+        <v>4900</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="F14:G15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/스터디 벌금.xlsx
+++ b/스터디 벌금.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rach/Documents/GitHub/unp_study_penalty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EEC8D1-9EA3-2748-B968-7E16B66C8C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C73433-E589-0240-B027-7BBA46F773D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{24509ADD-88A1-5743-8356-1991D6A2A3DD}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{24509ADD-88A1-5743-8356-1991D6A2A3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>김서진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>3월 12일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 13일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 14일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,6 +197,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,7 +549,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -545,11 +560,11 @@
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:G2" si="0">SUM(B4:B13)</f>
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="C2" s="4">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" si="0"/>
@@ -598,18 +613,28 @@
       <c r="B4" s="5">
         <v>500</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
-        <v>2000</v>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="5">
         <v>600</v>
@@ -623,25 +648,56 @@
       <c r="F5" s="5">
         <v>900</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5">
+        <f>-C40</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
+        <v>500</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1900</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3"/>
@@ -698,27 +754,27 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8">
         <f>SUM(B2:G2)</f>
-        <v>4900</v>
-      </c>
-      <c r="G14" s="7"/>
+        <v>7300</v>
+      </c>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/스터디 벌금.xlsx
+++ b/스터디 벌금.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rach/Documents/GitHub/unp_study_penalty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C73433-E589-0240-B027-7BBA46F773D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18A1180-B502-5340-BCD5-745C6477CD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{24509ADD-88A1-5743-8356-1991D6A2A3DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>김서진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,15 +78,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>알바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3월 13일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3월 14일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 15일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 18일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알바결석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원결석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업결석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000(결석)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 19일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +573,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -560,15 +584,15 @@
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:G2" si="0">SUM(B4:B13)</f>
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="C2" s="4">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>5200</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
@@ -580,7 +604,7 @@
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -634,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5">
         <v>600</v>
@@ -655,7 +679,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5">
         <v>500</v>
@@ -663,8 +687,8 @@
       <c r="C6" s="5">
         <v>1900</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -678,7 +702,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5">
         <v>1000</v>
@@ -700,31 +724,69 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5">
+        <v>700</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
+        <v>200</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1200</v>
+      </c>
+      <c r="C10" s="5">
+        <v>800</v>
+      </c>
+      <c r="D10" s="5">
+        <v>100</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3"/>
@@ -763,7 +825,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="8">
         <f>SUM(B2:G2)</f>
-        <v>7300</v>
+        <v>10400</v>
       </c>
       <c r="G14" s="8"/>
     </row>

--- a/스터디 벌금.xlsx
+++ b/스터디 벌금.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rach/Documents/GitHub/unp_study_penalty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18A1180-B502-5340-BCD5-745C6477CD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479E16B8-EF4C-A741-B79F-C3DEF7D39ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{24509ADD-88A1-5743-8356-1991D6A2A3DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>김서진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,15 +98,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>병원결석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수업결석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000(결석)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -573,7 +565,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -584,7 +576,7 @@
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:G2" si="0">SUM(B4:B13)</f>
-        <v>3200</v>
+        <v>7200</v>
       </c>
       <c r="C2" s="4">
         <f t="shared" si="0"/>
@@ -688,7 +680,7 @@
         <v>1900</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -727,8 +719,8 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
+      <c r="B8" s="5">
+        <v>2000</v>
       </c>
       <c r="C8" s="5">
         <v>700</v>
@@ -750,8 +742,8 @@
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
+      <c r="B9" s="5">
+        <v>2000</v>
       </c>
       <c r="C9" s="5">
         <v>200</v>
@@ -767,7 +759,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5">
         <v>1200</v>
@@ -825,7 +817,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="8">
         <f>SUM(B2:G2)</f>
-        <v>10400</v>
+        <v>14400</v>
       </c>
       <c r="G14" s="8"/>
     </row>

--- a/스터디 벌금.xlsx
+++ b/스터디 벌금.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rach/Documents/GitHub/unp_study_penalty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479E16B8-EF4C-A741-B79F-C3DEF7D39ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78C4569-A961-B040-B059-9A187212B1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{24509ADD-88A1-5743-8356-1991D6A2A3DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>김서진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>3월 19일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 20일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +569,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -580,7 +584,7 @@
       </c>
       <c r="C2" s="4">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>7200</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" si="0"/>
@@ -596,7 +600,7 @@
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -781,13 +785,27 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3"/>
@@ -817,7 +835,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="8">
         <f>SUM(B2:G2)</f>
-        <v>14400</v>
+        <v>16500</v>
       </c>
       <c r="G14" s="8"/>
     </row>

--- a/스터디 벌금.xlsx
+++ b/스터디 벌금.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rach/Documents/GitHub/unp_study_penalty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78C4569-A961-B040-B059-9A187212B1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFCDE2A-FEF4-8342-83B7-11715C503139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{24509ADD-88A1-5743-8356-1991D6A2A3DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>김서진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>3월 20일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 21일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +573,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -580,15 +584,15 @@
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:G2" si="0">SUM(B4:B13)</f>
-        <v>7200</v>
+        <v>8600</v>
       </c>
       <c r="C2" s="4">
         <f t="shared" si="0"/>
-        <v>7200</v>
+        <v>8100</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
@@ -808,13 +812,27 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1400</v>
+      </c>
+      <c r="C12" s="5">
+        <v>900</v>
+      </c>
+      <c r="D12" s="5">
+        <v>300</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3"/>
@@ -835,7 +853,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="8">
         <f>SUM(B2:G2)</f>
-        <v>16500</v>
+        <v>19100</v>
       </c>
       <c r="G14" s="8"/>
     </row>

--- a/스터디 벌금.xlsx
+++ b/스터디 벌금.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rach/Documents/GitHub/unp_study_penalty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFCDE2A-FEF4-8342-83B7-11715C503139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC0663F-79F4-D64A-9A79-E77308C5A4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{24509ADD-88A1-5743-8356-1991D6A2A3DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>김서진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,22 @@
   </si>
   <si>
     <t>3월 21일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 22일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 25일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 26일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅁㄹ?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -195,6 +211,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -204,32 +246,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,306 +624,418 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="116" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
-        <f t="shared" ref="B2:G2" si="0">SUM(B4:B13)</f>
-        <v>8600</v>
-      </c>
-      <c r="C2" s="4">
-        <f t="shared" si="0"/>
-        <v>8100</v>
-      </c>
-      <c r="D2" s="4">
-        <f t="shared" si="0"/>
-        <v>1100</v>
-      </c>
-      <c r="E2" s="4">
-        <f t="shared" si="0"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="11">
+        <f>SUM(B7:G100)</f>
+        <v>27100</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <f>SUM(B7:B100)</f>
+        <v>12700</v>
+      </c>
+      <c r="C4" s="7">
+        <f>SUM(C7:C100)</f>
+        <v>9200</v>
+      </c>
+      <c r="D4" s="7">
+        <f>SUM(D7:D100)</f>
+        <v>1900</v>
+      </c>
+      <c r="E4" s="7">
+        <f>SUM(B7:G100)</f>
+        <v>27100</v>
+      </c>
+      <c r="F4" s="7">
+        <f>SUM(F7:F100)</f>
+        <v>900</v>
+      </c>
+      <c r="G4" s="7">
+        <f>SUM(G7:G100)</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>500</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>600</v>
+      </c>
+      <c r="D8" s="2">
+        <v>700</v>
+      </c>
+      <c r="E8" s="2">
         <v>200</v>
       </c>
-      <c r="F2" s="4">
-        <f t="shared" si="0"/>
+      <c r="F8" s="2">
         <v>900</v>
       </c>
-      <c r="G2" s="4">
-        <f t="shared" si="0"/>
+      <c r="G8" s="2">
+        <f>-J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>500</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1900</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>700</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="2">
+        <v>800</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="2">
+        <v>900</v>
+      </c>
+      <c r="D15" s="2">
+        <v>300</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C16" s="2">
+        <v>900</v>
+      </c>
+      <c r="D16" s="2">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="9">
+        <v>200</v>
+      </c>
+      <c r="D17" s="9">
+        <v>200</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="9">
+        <v>900</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="9">
         <v>500</v>
       </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5">
-        <v>600</v>
-      </c>
-      <c r="D5" s="5">
-        <v>700</v>
-      </c>
-      <c r="E5" s="5">
-        <v>200</v>
-      </c>
-      <c r="F5" s="5">
-        <v>900</v>
-      </c>
-      <c r="G5" s="5">
-        <f>-C40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5">
-        <v>500</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1900</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5">
-        <v>2000</v>
-      </c>
-      <c r="C8" s="5">
-        <v>700</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2000</v>
-      </c>
-      <c r="C9" s="5">
-        <v>200</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1200</v>
-      </c>
-      <c r="C10" s="5">
-        <v>800</v>
-      </c>
-      <c r="D10" s="5">
-        <v>100</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1400</v>
-      </c>
-      <c r="C12" s="5">
-        <v>900</v>
-      </c>
-      <c r="D12" s="5">
-        <v>300</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8">
-        <f>SUM(B2:G2)</f>
-        <v>19100</v>
-      </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="F14:G15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A2:E3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/스터디 벌금.xlsx
+++ b/스터디 벌금.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rach/Documents/GitHub/unp_study_penalty/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gwise\OneDrive\문서\unp_study_penalty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC0663F-79F4-D64A-9A79-E77308C5A4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC526AAC-3ABD-4A58-9ECD-139CC7AFF970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{24509ADD-88A1-5743-8356-1991D6A2A3DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,130 +33,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+  <si>
+    <t>3월 20일</t>
+  </si>
+  <si>
+    <t>03월 11일</t>
+  </si>
+  <si>
+    <t>3월 12일</t>
+  </si>
+  <si>
+    <t>3월 14일</t>
+  </si>
+  <si>
+    <t>3월 18일</t>
+  </si>
+  <si>
+    <t>수업결석</t>
+  </si>
+  <si>
+    <t>3월 21일</t>
+  </si>
+  <si>
+    <t>3월 22일</t>
+  </si>
+  <si>
+    <t>3월 13일</t>
+  </si>
+  <si>
+    <t>3월 25일</t>
+  </si>
+  <si>
+    <t>3월 26일</t>
+  </si>
+  <si>
+    <t>알바결석</t>
+  </si>
+  <si>
+    <t>3월 15일</t>
+  </si>
+  <si>
+    <t>3월 19일</t>
+  </si>
+  <si>
+    <t>3월 27일</t>
+  </si>
+  <si>
+    <t>결석</t>
+  </si>
+  <si>
+    <t>최우혁</t>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>강대훈</t>
+  </si>
+  <si>
+    <t>허지호</t>
+  </si>
+  <si>
+    <t>엄정경</t>
+  </si>
+  <si>
+    <t>김지수</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
   <si>
     <t>김서진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최우혁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강대훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허지호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03월 11일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김지수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄정경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 12일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 13일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 14일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 15일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 18일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알바결석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수업결석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 19일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 20일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 21일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 22일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 25일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 26일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅁㄹ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 28일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 29일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -177,13 +165,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF4EA72E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,42 +186,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -242,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -253,38 +241,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -515,21 +503,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -590,6 +578,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="20000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
     <a:lnDef>
       <a:spPr/>
       <a:bodyPr/>
@@ -609,116 +618,119 @@
         </a:fontRef>
       </a:style>
     </a:lnDef>
+    <a:txDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:txDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AF3866-83C0-5443-A156-F6E26DC42B1D}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="116" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="11">
-        <f>SUM(B7:G100)</f>
-        <v>27100</v>
-      </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7">
-        <f>SUM(B7:B100)</f>
-        <v>12700</v>
-      </c>
-      <c r="C4" s="7">
-        <f>SUM(C7:C100)</f>
-        <v>9200</v>
-      </c>
-      <c r="D4" s="7">
-        <f>SUM(D7:D100)</f>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6">
+        <f>SUM(B4:G4)</f>
+        <v>32900</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="10">
+        <f t="shared" ref="B4:G4" si="0">SUM(B7:B100)</f>
+        <v>15300</v>
+      </c>
+      <c r="C4" s="10">
+        <f t="shared" si="0"/>
+        <v>10200</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="E4" s="7">
-        <f>SUM(B7:G100)</f>
-        <v>27100</v>
-      </c>
-      <c r="F4" s="7">
-        <f>SUM(F7:F100)</f>
+      <c r="E4" s="10">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="G4" s="7">
-        <f>SUM(G7:G100)</f>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G4" s="10">
+        <f t="shared" si="0"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>500</v>
@@ -739,12 +751,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="2">
         <v>600</v>
@@ -763,9 +775,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="10" t="s">
-        <v>10</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>500</v>
@@ -774,7 +786,7 @@
         <v>1900</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -786,9 +798,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="10" t="s">
-        <v>11</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B10" s="2">
         <v>1000</v>
@@ -809,8 +821,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2">
@@ -832,9 +844,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="10" t="s">
-        <v>13</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B12" s="2">
         <v>2000</v>
@@ -851,9 +863,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="10" t="s">
-        <v>16</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>1200</v>
@@ -874,12 +886,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="10" t="s">
-        <v>17</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2">
         <v>2000</v>
@@ -897,9 +909,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="10" t="s">
-        <v>18</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B15" s="2">
         <v>1400</v>
@@ -920,9 +932,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="10" t="s">
-        <v>19</v>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B16" s="2">
         <v>1200</v>
@@ -943,102 +955,128 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="9">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3">
         <v>2000</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="3">
         <v>200</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="9">
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3">
         <v>900</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="10"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="10"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="10"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="10"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3">
+        <v>600</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A2:E3"/>
     <mergeCell ref="F2:G3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/스터디 벌금.xlsx
+++ b/스터디 벌금.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gwise\OneDrive\문서\unp_study_penalty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC526AAC-3ABD-4A58-9ECD-139CC7AFF970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C73BE8-42AC-4956-A1CE-D44B3B8B92F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -250,6 +250,9 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -270,9 +273,6 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -633,10 +633,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -644,149 +644,172 @@
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7">
+        <f>SUM(B3:G3)</f>
+        <v>33800</v>
+      </c>
+      <c r="G1" s="8"/>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6">
-        <f>SUM(B4:G4)</f>
-        <v>32900</v>
-      </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="10">
-        <f t="shared" ref="B4:G4" si="0">SUM(B7:B100)</f>
+      <c r="B3" s="11">
+        <f t="shared" ref="B3:G3" si="0">SUM(B6:B99)</f>
         <v>15300</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C3" s="11">
         <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="D4" s="10">
+        <v>10900</v>
+      </c>
+      <c r="D3" s="11">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E3" s="11">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F3" s="11">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G3" s="11">
         <f t="shared" si="0"/>
-        <v>4400</v>
-      </c>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>500</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>500</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G7" s="2">
+        <f>-J41</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>500</v>
       </c>
       <c r="C8" s="2">
-        <v>600</v>
-      </c>
-      <c r="D8" s="2">
-        <v>700</v>
+        <v>1900</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <f>-J41</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C9" s="2">
-        <v>1900</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -800,13 +823,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C10" s="2">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -818,86 +841,86 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
         <v>2000</v>
       </c>
       <c r="C11" s="2">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="C12" s="2">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1200</v>
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <v>100</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1400</v>
       </c>
       <c r="C14" s="2">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -906,21 +929,21 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="C15" s="2">
         <v>900</v>
       </c>
       <c r="D15" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -929,44 +952,44 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C16" s="2">
-        <v>900</v>
-      </c>
-      <c r="D16" s="2">
-        <v>100</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3">
         <v>2000</v>
+      </c>
+      <c r="C16" s="3">
+        <v>200</v>
+      </c>
+      <c r="D16" s="3">
+        <v>200</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C17" s="3">
-        <v>200</v>
+        <v>900</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -975,21 +998,21 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3">
-        <v>900</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1000</v>
       </c>
       <c r="D18" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -998,18 +1021,18 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>14</v>
+      <c r="A19" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C19" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -1021,59 +1044,52 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="3">
-        <v>600</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="3">
+        <v>300</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2000</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A2:E3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
